--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H2">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I2">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J2">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N2">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O2">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P2">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q2">
-        <v>3636.789003648576</v>
+        <v>484.1399524095918</v>
       </c>
       <c r="R2">
-        <v>32731.10103283718</v>
+        <v>4357.259571686326</v>
       </c>
       <c r="S2">
-        <v>0.4248098859629511</v>
+        <v>0.07023210072828152</v>
       </c>
       <c r="T2">
-        <v>0.4248098859629511</v>
+        <v>0.07023210072828152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H3">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I3">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J3">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.296359</v>
       </c>
       <c r="O3">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P3">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q3">
-        <v>12.306408583104</v>
+        <v>1.136359203342445</v>
       </c>
       <c r="R3">
-        <v>110.757677247936</v>
+        <v>10.227232830082</v>
       </c>
       <c r="S3">
-        <v>0.00143749995437103</v>
+        <v>0.0001648467424252904</v>
       </c>
       <c r="T3">
-        <v>0.00143749995437103</v>
+        <v>0.0001648467424252903</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H4">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I4">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J4">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N4">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O4">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P4">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q4">
-        <v>21.393152293248</v>
+        <v>3.597213944466001</v>
       </c>
       <c r="R4">
-        <v>192.538370639232</v>
+        <v>32.374925500194</v>
       </c>
       <c r="S4">
-        <v>0.002498913898212201</v>
+        <v>0.0005218323561844299</v>
       </c>
       <c r="T4">
-        <v>0.0024989138982122</v>
+        <v>0.0005218323561844299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H5">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I5">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J5">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N5">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O5">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P5">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q5">
-        <v>135.9324928224</v>
+        <v>4.471065343823779</v>
       </c>
       <c r="R5">
-        <v>1223.3924354016</v>
+        <v>40.239588094414</v>
       </c>
       <c r="S5">
-        <v>0.01587814600093951</v>
+        <v>0.0006485982204676629</v>
       </c>
       <c r="T5">
-        <v>0.01587814600093951</v>
+        <v>0.0006485982204676628</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>54.380033</v>
       </c>
       <c r="I6">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J6">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N6">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O6">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P6">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q6">
-        <v>2314.776260697488</v>
+        <v>3337.163877576914</v>
       </c>
       <c r="R6">
-        <v>20832.98634627739</v>
+        <v>30034.47489819222</v>
       </c>
       <c r="S6">
-        <v>0.270386827047189</v>
+        <v>0.4841080113927009</v>
       </c>
       <c r="T6">
-        <v>0.2703868270471889</v>
+        <v>0.4841080113927009</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>54.380033</v>
       </c>
       <c r="I7">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J7">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.296359</v>
       </c>
       <c r="O7">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P7">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q7">
         <v>7.832893911094112</v>
@@ -883,10 +883,10 @@
         <v>70.496045199847</v>
       </c>
       <c r="S7">
-        <v>0.0009149529339737631</v>
+        <v>0.001136284232317378</v>
       </c>
       <c r="T7">
-        <v>0.000914952933973763</v>
+        <v>0.001136284232317377</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>54.380033</v>
       </c>
       <c r="I8">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J8">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N8">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O8">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P8">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q8">
-        <v>13.61650648971267</v>
+        <v>24.795500506911</v>
       </c>
       <c r="R8">
-        <v>122.548558407414</v>
+        <v>223.159504562199</v>
       </c>
       <c r="S8">
-        <v>0.001590531252515735</v>
+        <v>0.003596976619141394</v>
       </c>
       <c r="T8">
-        <v>0.001590531252515735</v>
+        <v>0.003596976619141394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>54.380033</v>
       </c>
       <c r="I9">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J9">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N9">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O9">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P9">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q9">
-        <v>86.51953883688336</v>
+        <v>30.81893507328545</v>
       </c>
       <c r="R9">
-        <v>778.6758495319502</v>
+        <v>277.370415659569</v>
       </c>
       <c r="S9">
-        <v>0.01010626555183434</v>
+        <v>0.004470770366363321</v>
       </c>
       <c r="T9">
-        <v>0.01010626555183434</v>
+        <v>0.004470770366363321</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H10">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I10">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J10">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N10">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O10">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P10">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q10">
-        <v>757.6433052644651</v>
+        <v>1390.093542289539</v>
       </c>
       <c r="R10">
-        <v>6818.789747380186</v>
+        <v>12510.84188060585</v>
       </c>
       <c r="S10">
-        <v>0.08849959835093353</v>
+        <v>0.201654891726879</v>
       </c>
       <c r="T10">
-        <v>0.08849959835093353</v>
+        <v>0.201654891726879</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H11">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I11">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J11">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.296359</v>
       </c>
       <c r="O11">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P11">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q11">
-        <v>2.563763821735</v>
+        <v>3.262787097874556</v>
       </c>
       <c r="R11">
-        <v>23.073874395615</v>
+        <v>29.365083880871</v>
       </c>
       <c r="S11">
-        <v>0.0002994708287048116</v>
+        <v>0.0004733184918376572</v>
       </c>
       <c r="T11">
-        <v>0.0002994708287048116</v>
+        <v>0.0004733184918376572</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H12">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I12">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J12">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N12">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O12">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P12">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q12">
-        <v>4.456782782070001</v>
+        <v>10.328550349023</v>
       </c>
       <c r="R12">
-        <v>40.11104503863</v>
+        <v>92.95695314120701</v>
       </c>
       <c r="S12">
-        <v>0.0005205925841486485</v>
+        <v>0.001498318378558462</v>
       </c>
       <c r="T12">
-        <v>0.0005205925841486483</v>
+        <v>0.001498318378558462</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H13">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I13">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J13">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N13">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O13">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P13">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q13">
-        <v>28.31848178475001</v>
+        <v>12.83760827973522</v>
       </c>
       <c r="R13">
-        <v>254.8663360627501</v>
+        <v>115.538474517617</v>
       </c>
       <c r="S13">
-        <v>0.003307855090178341</v>
+        <v>0.001862296621721075</v>
       </c>
       <c r="T13">
-        <v>0.00330785509017834</v>
+        <v>0.001862296621721075</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H14">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I14">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J14">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N14">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O14">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P14">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q14">
-        <v>1470.253981015222</v>
+        <v>1553.415949363567</v>
       </c>
       <c r="R14">
-        <v>13232.285829137</v>
+        <v>13980.7435442721</v>
       </c>
       <c r="S14">
-        <v>0.1717389778139586</v>
+        <v>0.2253473709112952</v>
       </c>
       <c r="T14">
-        <v>0.1717389778139586</v>
+        <v>0.2253473709112951</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H15">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I15">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J15">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.296359</v>
       </c>
       <c r="O15">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P15">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q15">
-        <v>4.975143235738</v>
+        <v>3.646132697565112</v>
       </c>
       <c r="R15">
-        <v>44.776289121642</v>
+        <v>32.815194278086</v>
       </c>
       <c r="S15">
-        <v>0.0005811417787787159</v>
+        <v>0.0005289287893088997</v>
       </c>
       <c r="T15">
-        <v>0.0005811417787787159</v>
+        <v>0.0005289287893088996</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H16">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I16">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J16">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N16">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O16">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P16">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q16">
-        <v>8.648664328356</v>
+        <v>11.542054083318</v>
       </c>
       <c r="R16">
-        <v>77.83797895520401</v>
+        <v>103.878486749862</v>
       </c>
       <c r="S16">
-        <v>0.001010242305334406</v>
+        <v>0.00167435614630924</v>
       </c>
       <c r="T16">
-        <v>0.001010242305334406</v>
+        <v>0.00167435614630924</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H17">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I17">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J17">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N17">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O17">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P17">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q17">
-        <v>54.95377612530001</v>
+        <v>14.34590180210245</v>
       </c>
       <c r="R17">
-        <v>494.5839851277001</v>
+        <v>129.113116218922</v>
       </c>
       <c r="S17">
-        <v>0.006419098645976346</v>
+        <v>0.002081098276208557</v>
       </c>
       <c r="T17">
-        <v>0.006419098645976346</v>
+        <v>0.002081098276208557</v>
       </c>
     </row>
   </sheetData>
